--- a/Data Collection/Persons/Herta Müller/Herta_Müller_all.xlsx
+++ b/Data Collection/Persons/Herta Müller/Herta_Müller_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\.spyder-py3\Herta Müller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Herta Müller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2888742-D679-44B1-B668-A304EAFFC316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C735D6-4613-3F41-907F-628FE40EFCD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="446">
   <si>
     <t>title</t>
   </si>
@@ -76,26 +76,10 @@
 Amanda Lasker-Berlin ist nicht der wirkliche Name der Schriftstellerin, deren Großvater noch als Bergmann im Ruhrgebiet unter Tage gearbeitet hat.</t>
   </si>
   <si>
-    <t>BVB-Handballerinnen in Quarantäne: Spiel abgesagt</t>
-  </si>
-  <si>
     <t>Süddeutsche Zeitung</t>
   </si>
   <si>
-    <t>2 Apr 2021</t>
-  </si>
-  <si>
     <t>Auszeichnungen - Dortmund. :Grimm-Preis für Literaturnobelpreisträgerin Herta Müller · Bundesliga. Fußball - Dortmund. :BVB: So viele Spieler wie möglich ...</t>
-  </si>
-  <si>
-    <t>https://www.sueddeutsche.de/sport/handball-dortmund-bvb-handballerinnen-in-quarantaene-spiel-abgesagt-dpa.urn-newsml-dpa-com-20090101-210402-99-67547</t>
-  </si>
-  <si>
-    <t>Direkt aus dem dpa-NewskanalDortmund (dpa) - Die für Karsamstag vorgesehene Bundesligapartie der Handballerinnen von Borussia Dortmund gegen die HSG Blomberg-Lippe wurde wegen eines positiven Corona-Tests abgesagt.
-Wie der BVB am Karfreitag mitteilte, befinde sich das Team in Quarantäne, da eine Spielerin von Bietigheim nach dem Spiel gegen Dortmund am Mittwoch positiv getestet wurde.
-Zwar seien alle Tests der BVB-Spielerinnen negativ ausgefallen, dennoch muss das Team nach Rücksprache mit dem Gesundheitsamt zur Sicherheit voraussichtlich mindestens zehn Tage in Quarantäne verbringen.
-Damit ist auch die Austragung für die am 10.
-April terminierte Partie der BVB-Frauen gegen den Thüringer HC gefährdet.</t>
   </si>
   <si>
     <t>Reise durch die Republik: Ein Land im Krisenmodus</t>
@@ -205,27 +189,6 @@
 Die Kommentarfunktion ist nur für registrierte Premiumbenutzer (Verbandsmitglieder) freigeschaltet.</t>
   </si>
   <si>
-    <t>Baden-Württemberg: Das neue Waldhorn steht in den Startlöchern</t>
-  </si>
-  <si>
-    <t>AHGZ</t>
-  </si>
-  <si>
-    <t>6 Apr 2021</t>
-  </si>
-  <si>
-    <t>... Hotels und ersten Hauses am Platz viele illustre Gäste wie etwa Bundeskanzlerin Angela Merkel, die Literaturnobelpreisträger Günter Grass und Herta Müller, ...</t>
-  </si>
-  <si>
-    <t>https://www.ahgz.de/gastronomie/news/baden-wuerttemberg-das-neue-waldhorn-steht-in-den-startloechern-301800</t>
-  </si>
-  <si>
-    <t>WaldhornDie Altdeutsche StubeEine Ravensburger Gastgewerbe-Legende soll wieder aufleben.
-Der Hotelbetrieb ist zwar Geschichte, aber mit der Gastronomie im ruhmreichen Waldhorn soll es weitergehen.
-Eine Ravensburger Gastgewerbe-Legende soll wieder aufleben.
-Der Hotelbetrieb ist zwar Geschichte, aber mit der Gastronomie im ruhmreichen Waldhorn so</t>
-  </si>
-  <si>
     <t>Gisela Schützmannsky – erste Professorin für ...</t>
   </si>
   <si>
@@ -248,23 +211,7 @@
 14 (1959), 976;18 Dokumentensammlung Schützmannsky; Kleeberg (2013);19 Kürschner (1966), 2257;20 Dokumentensammlung Schützmannsky; Kleeberg (2013);21 Dokumentensammlung Schützmannsky;22 Werner (2020);23 Werner (2020); Todesanzeige Schützmannsky;24 Groß (2021e)25 Groß (2021f);26 Groß (1998); Groß (2009); Groß/Schäfer (2011); Groß (2019), 63–73;27 Groß (2021f);28 Groß (2018);29 Groß (2021g);30 Dokumentensammlung Schützmannsky; Hübner/Müller (1990), 64;31 Kleeberg (2013), 40;32 Hübner/Müller (1990), 64;33 Dokumentensammlung Schützmannsky;34 Schützmannsky (1953); Schützmannsky (1955a und b); Schützmannsky (1957); Schützmannsky (1961); Schützmannsky (1971); Binder/Driscoll/Schützmannsky (1978);35 Reichenbach/Schützmannsky (1957);36 Schützmannsky (1958);37 Schützmannsky (1970);38 Schützmannsky (1966a und b); Schützmannsky (1967);39 Schützmannsky (1968); Schützmannsky (1978);40 Schützmannsky (1982);41 Fengler et al.</t>
   </si>
   <si>
-    <t>Hertha BSC wirft seinen Torwarttrainer raus</t>
-  </si>
-  <si>
     <t>FAZ</t>
-  </si>
-  <si>
-    <t>... GötzeUEFAJogi LöwBorussia DortmundEndspielFC Bayern MünchenGareth SouthgateLeon GoretzkaRaheem SterlingThomas MüllerAmerican Football.</t>
-  </si>
-  <si>
-    <t>https://www.faz.net/aktuell/sport/fussball/bundesliga/hertha-bsc-entlaesst-torwarttrainer-zsolt-petry-nach-interview-17279951.html</t>
-  </si>
-  <si>
-    <t>Zsolt Petry gibt ein Interview mit homophoben und migrationsfeindlichen Aussagen.
-Auch wenn der Torwarttrainer sich noch verteidigt, reagiert Hertha BSC und trennt sich vom Ungarn.
-Homophobe und migrationsfeindliche Aussagen haben Zsolt Petry seinen Job als Torwarttrainer bei Hertha BSC gekostet.
-Meine Aussage zur Einwanderungspolitik bedaure ich sehr und möchte all die Menschen, die bei uns Zuflucht suchen und die ich damit beleidigt habe, um Entschuldigung bitten“, sagte er.
-Der Leipziger Torwart Peter Gulacsi setzt sich gegen die Einschränkung der Rechte sexueller Minderheiten in Ungarn ein.</t>
   </si>
   <si>
     <t>Alexej Nawalny: Prominente fordern von Putin medizinische Hilfe für Oppositionellen</t>
@@ -406,25 +353,6 @@
 Die Staatssicherheit stoppt den Wagen, zerrt Jürgen Fuchs heraus und bringt ihn in das nahe Stasi-Untersuchungsgefängnis Hohenschönhausen.</t>
   </si>
   <si>
-    <t>Feuerwehr rettet Entenfamilie aus Regenrückhaltebecken</t>
-  </si>
-  <si>
-    <t>28 Apr 2021</t>
-  </si>
-  <si>
-    <t>Auszeichnungen - Dortmund. :Grimm-Preis für Literaturnobelpreisträgerin Herta Müller. Bundesliga. Fußball - Dortmund. :BVB: So viele Spieler wie möglich ...</t>
-  </si>
-  <si>
-    <t>https://www.sueddeutsche.de/leben/tiere-dortmund-feuerwehr-rettet-entenfamilie-aus-regenrueckhaltebecken-dpa.urn-newsml-dpa-com-20090101-210428-99-384789</t>
-  </si>
-  <si>
-    <t>Direkt aus dem dpa-NewskanalDortmund (dpa/lnw) - Die Feuerwehr hat in Dortmund eine Entenfamilie mit vier Küken aus einem Regenrückhaltebecken befreit.
-Wie die Einsatzkräfte am Mittwoch berichteten, waren sie am Morgen gegen 6 Uhr auf die Tiere in dem riesigen Betonbecken hingewiesen worden.
-"Da die Wände des Rückhaltebeckens gut 15 Meter hoch und sehr steil sind, konnten die kleinen Küken dieses nicht verlassen und somit auch keine Nahrung finden", so die Feuerwehr.
-Zwei Männer hätten sich daraufhin Wathosen angezogen und die Küken eingesammelt.
-"Nach diesem ungewöhnlichen Einsatz fuhren die Einsatzkräfte mit einem außerordentlich guten Gefühl zurück zur Feuerwache."</t>
-  </si>
-  <si>
     <t>„Es wird Konsequenzen geben, falls Nawalnyj stirbt“</t>
   </si>
   <si>
@@ -1735,6 +1663,9 @@
 Mai 2020 | Anpfiff: 18.30 Uhr (heute) Ort Olympiastadion, Berlin TV DAZN 1 LIVE-STREAM DAZNWer zeigt / überträgt Hertha BSC vs. SC Freiburg heute live im TV?
 DAZN zeigt / überträgt Hertha BSC vs. SC Freiburg heute im TV auf dem linearen Kanal DAZN 1Mittlerweile ist der Streamingdienst auch via Kabel empfangbar.
 DAZN zeigt / überträgt Hertha BSC vs. SC Freiburg heute im STREAM auf dem Smart-TVAußerdem gibt es noch eine weitere Alternative.</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1805,13 +1736,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2093,15 +2025,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2058,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2152,666 +2087,720 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="D27" t="s">
         <v>108</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>150</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
         <v>152</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>153</v>
       </c>
       <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
         <v>154</v>
-      </c>
-      <c r="D28" t="s">
-        <v>138</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2826,41 +2815,44 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>158</v>
       </c>
       <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>160</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>162</v>
       </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
         <v>165</v>
@@ -2875,177 +2867,174 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
         <v>168</v>
       </c>
       <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="F34" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
         <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" t="s">
-        <v>189</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" t="s">
-        <v>200</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>201</v>
@@ -3057,249 +3046,252 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>203</v>
       </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" t="s">
         <v>205</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F39" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>213</v>
-      </c>
-      <c r="C40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" t="s">
-        <v>241</v>
-      </c>
-      <c r="F45" t="s">
-        <v>242</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>235</v>
-      </c>
-      <c r="F46" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" t="s">
-        <v>251</v>
       </c>
       <c r="F47" t="s">
         <v>252</v>
@@ -3314,96 +3306,93 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>259</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="s">
         <v>261</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>263</v>
-      </c>
-      <c r="C50" t="s">
-        <v>264</v>
-      </c>
-      <c r="D50" t="s">
-        <v>265</v>
-      </c>
-      <c r="F50" t="s">
-        <v>266</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D51" t="s">
-        <v>224</v>
       </c>
       <c r="F51" t="s">
         <v>271</v>
@@ -3418,18 +3407,18 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F52" t="s">
         <v>276</v>
@@ -3441,18 +3430,18 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>280</v>
@@ -3466,15 +3455,15 @@
       <c r="H53" t="s">
         <v>13</v>
       </c>
-      <c r="I53" t="s">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>284</v>
       </c>
       <c r="D54" t="s">
@@ -3493,47 +3482,47 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="F55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>296</v>
@@ -3545,428 +3534,428 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="F59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C61" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
       </c>
       <c r="I61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>323</v>
-      </c>
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" t="s">
-        <v>324</v>
-      </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
       </c>
       <c r="I64" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" t="s">
+        <v>344</v>
+      </c>
+      <c r="F65" t="s">
+        <v>345</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="F66" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" t="s">
+        <v>353</v>
+      </c>
+      <c r="F67" t="s">
+        <v>354</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
+        <v>358</v>
+      </c>
+      <c r="F68" t="s">
+        <v>359</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" t="s">
+        <v>364</v>
+      </c>
+      <c r="F69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" t="s">
+        <v>369</v>
+      </c>
+      <c r="F70" t="s">
+        <v>370</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>374</v>
+      </c>
+      <c r="F71" t="s">
         <v>339</v>
       </c>
-      <c r="C65" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" t="s">
-        <v>341</v>
-      </c>
-      <c r="F65" t="s">
-        <v>342</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>345</v>
-      </c>
-      <c r="C66" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" t="s">
-        <v>341</v>
-      </c>
-      <c r="F66" t="s">
-        <v>347</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>350</v>
-      </c>
-      <c r="C67" t="s">
-        <v>351</v>
-      </c>
-      <c r="D67" t="s">
-        <v>352</v>
-      </c>
-      <c r="F67" t="s">
-        <v>353</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>356</v>
-      </c>
-      <c r="C68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" t="s">
-        <v>357</v>
-      </c>
-      <c r="F68" t="s">
-        <v>358</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>361</v>
-      </c>
-      <c r="C69" t="s">
-        <v>362</v>
-      </c>
-      <c r="D69" t="s">
-        <v>363</v>
-      </c>
-      <c r="F69" t="s">
-        <v>364</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
-      </c>
-      <c r="C70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" t="s">
-        <v>357</v>
-      </c>
-      <c r="F70" t="s">
-        <v>368</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>371</v>
-      </c>
-      <c r="C71" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" t="s">
-        <v>372</v>
-      </c>
-      <c r="F71" t="s">
-        <v>373</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
       </c>
       <c r="I71" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>376</v>
-      </c>
-      <c r="C72" t="s">
-        <v>208</v>
+        <v>377</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
       </c>
       <c r="I72" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
         <v>383</v>
@@ -3984,581 +3973,476 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>387</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="D74" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" t="s">
+        <v>328</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
         <v>389</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
         <v>390</v>
       </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="F75" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="G75" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
         <v>393</v>
       </c>
-      <c r="F75" t="s">
-        <v>358</v>
-      </c>
-      <c r="G75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
         <v>394</v>
       </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="D76" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="G76" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D76" t="s">
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
         <v>397</v>
       </c>
-      <c r="F76" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
         <v>398</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="C77" t="s">
         <v>399</v>
       </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="D77" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>401</v>
       </c>
-      <c r="C77" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
         <v>404</v>
       </c>
-      <c r="H77" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E78" s="3">
+        <v>44340.93767835277</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C78" t="s">
-        <v>346</v>
-      </c>
-      <c r="D78" t="s">
-        <v>402</v>
-      </c>
-      <c r="F78" t="s">
-        <v>347</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
         <v>407</v>
       </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
+        <v>405</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44340.937678375907</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
         <v>410</v>
       </c>
-      <c r="G79" s="2" t="s">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
         <v>411</v>
       </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" t="s">
+        <v>405</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44340.937678410643</v>
+      </c>
+      <c r="F80" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="G80" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D80" t="s">
-        <v>397</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
         <v>414</v>
       </c>
-      <c r="G80" s="2" t="s">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
         <v>415</v>
       </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="C81" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>405</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44340.937678433787</v>
+      </c>
+      <c r="F81" t="s">
         <v>417</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
         <v>419</v>
       </c>
-      <c r="F81" t="s">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
         <v>420</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="C82" t="s">
         <v>421</v>
       </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="D82" t="s">
+        <v>405</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44340.937678456932</v>
+      </c>
+      <c r="F82" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="G82" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
         <v>424</v>
       </c>
-      <c r="E82" s="3">
-        <v>44340.93767835277</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="C83" t="s">
+        <v>425</v>
+      </c>
+      <c r="D83" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44340.937678480092</v>
+      </c>
+      <c r="F83" t="s">
+        <v>426</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>429</v>
+      </c>
+      <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>427</v>
-      </c>
-      <c r="C83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" s="3">
-        <v>44340.937678375907</v>
-      </c>
-      <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
+        <v>405</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44340.937678503236</v>
+      </c>
+      <c r="F84" t="s">
         <v>430</v>
       </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" t="s">
-        <v>424</v>
-      </c>
-      <c r="E84" s="3">
-        <v>44340.937678410643</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
         <v>432</v>
       </c>
-      <c r="H84" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+      <c r="E85" s="3">
+        <v>44340.937678537957</v>
+      </c>
+      <c r="F85" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="G85" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C85" t="s">
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
         <v>435</v>
       </c>
-      <c r="D85" t="s">
-        <v>424</v>
-      </c>
-      <c r="E85" s="3">
-        <v>44340.937678433787</v>
-      </c>
-      <c r="F85" t="s">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
         <v>436</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="C86" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" t="s">
+        <v>405</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44340.937678561109</v>
+      </c>
+      <c r="F86" t="s">
         <v>437</v>
       </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="G86" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
         <v>439</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
         <v>440</v>
       </c>
-      <c r="D86" t="s">
-        <v>424</v>
-      </c>
-      <c r="E86" s="3">
-        <v>44340.937678456932</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="C87" t="s">
         <v>441</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="D87" t="s">
+        <v>405</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44340.937678595859</v>
+      </c>
+      <c r="F87" t="s">
         <v>442</v>
       </c>
-      <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="G87" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C87" t="s">
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
         <v>444</v>
-      </c>
-      <c r="D87" t="s">
-        <v>424</v>
-      </c>
-      <c r="E87" s="3">
-        <v>44340.937678480092</v>
-      </c>
-      <c r="F87" t="s">
-        <v>445</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H87" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>448</v>
-      </c>
-      <c r="C88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" t="s">
-        <v>424</v>
-      </c>
-      <c r="E88" s="3">
-        <v>44340.937678503236</v>
-      </c>
-      <c r="F88" t="s">
-        <v>449</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>451</v>
-      </c>
-      <c r="C89" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" t="s">
-        <v>424</v>
-      </c>
-      <c r="E89" s="3">
-        <v>44340.937678537957</v>
-      </c>
-      <c r="F89" t="s">
-        <v>452</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>455</v>
-      </c>
-      <c r="C90" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" t="s">
-        <v>424</v>
-      </c>
-      <c r="E90" s="3">
-        <v>44340.937678561109</v>
-      </c>
-      <c r="F90" t="s">
-        <v>456</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>459</v>
-      </c>
-      <c r="C91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D91" t="s">
-        <v>424</v>
-      </c>
-      <c r="E91" s="3">
-        <v>44340.937678595859</v>
-      </c>
-      <c r="F91" t="s">
-        <v>461</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{E3C10E2E-3703-4A4B-AB95-61598B10E8DD}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{C56067A7-22E5-4CBE-9379-7D873FD0E613}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{ED74D853-B2E1-44C3-8667-AD81C9EE5B0D}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{496066D4-70CF-4DB1-90EE-4FF0F13E42FC}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{2D3F8FB9-F956-4123-A5DD-BB23652A7EF6}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{93B8893C-F710-4056-8E77-C710CA1B37F2}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{C67D3A30-208B-4825-870E-E9BD5297D78A}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{B0A5DB19-D20A-4843-8EC8-C6CDF09CFE11}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{B14DA04F-8EBE-46B3-82A9-C4ECC1F4F7EB}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{16204EBD-D959-4C5D-810D-C9A80565BB9F}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{32D9C1AB-9DCB-4ED2-B306-0182EA874586}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{CF8793DD-60FA-4CF1-A85B-4BB7389139C1}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{72778549-AA11-4372-8A10-3C843221CB82}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{73FDA00E-E157-4778-AFFA-65E13731C677}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{0586ECE0-F11C-466A-A064-6C16AD82CDB8}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{623EF7DB-099C-4455-B2AA-F3FE82CCEDF4}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{79D6F49E-89BF-43A3-9390-FE50A06C5854}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{761E69EB-0CEB-4779-8D78-84D717302DFA}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{D704DDFF-D280-4188-8972-C721064727B6}"/>
-    <hyperlink ref="G21" r:id="rId20" xr:uid="{F74C70DF-E2B1-4F6E-AF38-0B4E605A297A}"/>
-    <hyperlink ref="G22" r:id="rId21" xr:uid="{CDFE4A27-6764-49EC-9EC9-EE39EE6731D1}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{B462A5EB-9921-4506-8123-56F4EDF8E337}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{8BCC4300-1A54-4708-84A6-A559B3CB581A}"/>
-    <hyperlink ref="G25" r:id="rId24" xr:uid="{AC0BDE6D-91A3-4EC4-8DF5-0FE80214F7A5}"/>
-    <hyperlink ref="G26" r:id="rId25" xr:uid="{627D62CE-4672-4A10-AF8B-0A5D5590BADF}"/>
-    <hyperlink ref="G27" r:id="rId26" xr:uid="{B6A18C7E-C1EE-4706-93FD-237AE52638F3}"/>
-    <hyperlink ref="G28" r:id="rId27" xr:uid="{B8DDFEC5-7852-4A4E-AFBC-B16E22A30541}"/>
-    <hyperlink ref="G29" r:id="rId28" xr:uid="{245F9F81-DE14-4F45-9888-3E1057D992E9}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{0E6A1966-E6E9-44CC-AE93-B046A42C848A}"/>
-    <hyperlink ref="G31" r:id="rId30" xr:uid="{7443264F-02D7-4B16-9AFF-FD340B0EDD83}"/>
-    <hyperlink ref="G32" r:id="rId31" xr:uid="{2DB1F2A3-BAB3-4112-8DD1-9834466E17FE}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{79DE6C6C-7E46-4CBC-8356-C97F2FDA3B5A}"/>
-    <hyperlink ref="G34" r:id="rId33" xr:uid="{C6F73D57-F511-422B-8BC1-ADFBA913F574}"/>
-    <hyperlink ref="G35" r:id="rId34" xr:uid="{48C8E87D-2208-4177-A71F-E9C722F7A2B1}"/>
-    <hyperlink ref="G36" r:id="rId35" xr:uid="{8FE716B1-244B-49A4-A16D-8C200C66BC44}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{EEFE1418-2175-4BE8-87C6-2E599E4E0511}"/>
-    <hyperlink ref="G38" r:id="rId37" xr:uid="{52D2788D-1400-4EAE-AFFF-1508E275F187}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{FC124292-F11C-4EC8-94B2-ED5B5AE44C1F}"/>
-    <hyperlink ref="G40" r:id="rId39" xr:uid="{0B39BF22-4E70-4811-A0F1-E81EA53CCF56}"/>
-    <hyperlink ref="G41" r:id="rId40" xr:uid="{0AFFFAC2-25A7-485D-8EB0-66ECC76394AF}"/>
-    <hyperlink ref="G42" r:id="rId41" xr:uid="{077AC040-DC02-4DDE-A5F9-89CE5CA8C026}"/>
-    <hyperlink ref="G43" r:id="rId42" xr:uid="{5CCC29F0-55EC-45C7-955F-6B81D9CC6E2F}"/>
-    <hyperlink ref="G44" r:id="rId43" xr:uid="{45ABA3DD-2B75-4B2F-8B8F-29356110694E}"/>
-    <hyperlink ref="G45" r:id="rId44" xr:uid="{6FCFEF51-8C54-4B9F-9F6D-D2FC5398A9B2}"/>
-    <hyperlink ref="G46" r:id="rId45" xr:uid="{8D0E138E-01CC-46B1-BEAF-3C1652FCC541}"/>
-    <hyperlink ref="G47" r:id="rId46" xr:uid="{F518B42F-4935-448A-8626-FE61076761C3}"/>
-    <hyperlink ref="G48" r:id="rId47" xr:uid="{E2EDB46F-A152-4338-8E3D-1CB349F3294B}"/>
-    <hyperlink ref="G49" r:id="rId48" xr:uid="{81691A83-EBCB-4A70-9ECA-BB8F9E90699F}"/>
-    <hyperlink ref="G50" r:id="rId49" xr:uid="{83E38E11-2F12-42E8-A735-AEA3AB6130F5}"/>
-    <hyperlink ref="G51" r:id="rId50" xr:uid="{B0C4D218-9B0A-41E2-A0DC-6C119C2CB643}"/>
-    <hyperlink ref="G52" r:id="rId51" xr:uid="{30ADC6DF-E630-44D5-A9CC-861266664D8C}"/>
-    <hyperlink ref="G53" r:id="rId52" xr:uid="{1F7A15A8-314A-484C-8810-7E60D3A08C9F}"/>
-    <hyperlink ref="G54" r:id="rId53" xr:uid="{B377999F-F4C6-4E87-9E43-76A285EF95B9}"/>
-    <hyperlink ref="G55" r:id="rId54" xr:uid="{2E3C496E-F960-43A4-8C2F-5EFE200B1855}"/>
-    <hyperlink ref="G56" r:id="rId55" xr:uid="{C56FAECB-981A-4AE8-9688-69C7C45970F5}"/>
-    <hyperlink ref="G57" r:id="rId56" xr:uid="{A8385E04-048D-413D-9951-CE311077B9CB}"/>
-    <hyperlink ref="G58" r:id="rId57" xr:uid="{D677456D-17F9-43D0-BF14-8180DAF66B41}"/>
-    <hyperlink ref="G59" r:id="rId58" xr:uid="{27352DB4-CFCD-4D32-905E-152D089806A7}"/>
-    <hyperlink ref="G60" r:id="rId59" xr:uid="{4368DC8F-528A-4539-AE45-B7B8755FEDE3}"/>
-    <hyperlink ref="G61" r:id="rId60" xr:uid="{36B54448-F8B8-4ECE-B125-738E3B2BDC9C}"/>
-    <hyperlink ref="G62" r:id="rId61" xr:uid="{EA32274B-1EAD-4579-ACB3-78BBB56DA777}"/>
-    <hyperlink ref="G63" r:id="rId62" xr:uid="{2FBEC6EB-517E-40D2-B6C6-6AA6E5D6EAE3}"/>
-    <hyperlink ref="G64" r:id="rId63" xr:uid="{FA24014A-D80B-4B95-8CCF-479C1E553FC3}"/>
-    <hyperlink ref="G65" r:id="rId64" xr:uid="{402A26C7-A6C4-4F01-92AA-C1D47063CC35}"/>
-    <hyperlink ref="G66" r:id="rId65" xr:uid="{C0152036-1D61-48AB-849A-C3F9258CC575}"/>
-    <hyperlink ref="G67" r:id="rId66" xr:uid="{3C16D9C6-0E11-4469-9B1E-98CEE619D7E5}"/>
-    <hyperlink ref="G68" r:id="rId67" xr:uid="{4C2E5430-6E58-4387-96CF-BE5FA2A069F8}"/>
-    <hyperlink ref="G69" r:id="rId68" xr:uid="{01B96135-4DE7-47F9-BDD7-B64E392AB1D7}"/>
-    <hyperlink ref="G70" r:id="rId69" xr:uid="{C6163B7A-4F99-4E37-930F-880BA156578F}"/>
-    <hyperlink ref="G71" r:id="rId70" xr:uid="{D3DE43D7-8806-4622-8466-8089D6B3A5F4}"/>
-    <hyperlink ref="G72" r:id="rId71" xr:uid="{9E2BF655-0F1E-4067-BEE8-8AC540E3867F}"/>
-    <hyperlink ref="G73" r:id="rId72" xr:uid="{CD706569-7E84-4FB1-9DE1-F2726823B614}"/>
-    <hyperlink ref="G74" r:id="rId73" xr:uid="{8DE40ABE-969A-44D8-83D9-8629E793AA48}"/>
-    <hyperlink ref="G75" r:id="rId74" xr:uid="{59FCA426-7610-4129-A1B9-2E12BEA34EC9}"/>
-    <hyperlink ref="G76" r:id="rId75" xr:uid="{FF2D2263-67E4-4EDB-B408-6E3625D6D810}"/>
-    <hyperlink ref="G77" r:id="rId76" xr:uid="{19B48CB0-C3C2-4C30-8B40-F8CF09B8C53F}"/>
-    <hyperlink ref="G78" r:id="rId77" xr:uid="{B3A506EB-8DE1-43E9-B037-E3B81BEEA90E}"/>
-    <hyperlink ref="G79" r:id="rId78" xr:uid="{938A7E55-A0A2-4AC1-9EFC-B32360A48A12}"/>
-    <hyperlink ref="G80" r:id="rId79" xr:uid="{7E76A81A-6C95-4AB1-BF41-B56490CACD09}"/>
-    <hyperlink ref="G81" r:id="rId80" xr:uid="{73AA9401-B8DD-4286-AF24-04DFBBCC2AF2}"/>
-    <hyperlink ref="G82" r:id="rId81" xr:uid="{E27A8009-1112-47FB-9D84-2FB1784AA1F3}"/>
-    <hyperlink ref="G83" r:id="rId82" xr:uid="{13294166-CFD2-4EDF-A8B7-CBB8596289DC}"/>
-    <hyperlink ref="G84" r:id="rId83" xr:uid="{9D31B625-D93F-460D-82D5-EF8D1C7CA428}"/>
-    <hyperlink ref="G85" r:id="rId84" xr:uid="{047AD418-8158-4538-920D-1C158E1852A5}"/>
-    <hyperlink ref="G86" r:id="rId85" xr:uid="{681CDBEE-B0BB-40B2-AF39-A781D30C36A0}"/>
-    <hyperlink ref="G87" r:id="rId86" xr:uid="{F77152A8-70F7-4F5F-903E-6E736D2C7368}"/>
-    <hyperlink ref="G88" r:id="rId87" xr:uid="{C73861E0-542E-4425-8174-CA266821FD95}"/>
-    <hyperlink ref="G89" r:id="rId88" xr:uid="{F5EEF01A-275E-4780-80D9-5BC75E518D67}"/>
-    <hyperlink ref="G90" r:id="rId89" xr:uid="{10AB6757-B93E-4762-9FB1-92128363DD82}"/>
-    <hyperlink ref="G91" r:id="rId90" xr:uid="{DCBDD541-55FA-489C-80A0-59E50FCF05DB}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{ED74D853-B2E1-44C3-8667-AD81C9EE5B0D}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{496066D4-70CF-4DB1-90EE-4FF0F13E42FC}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{2D3F8FB9-F956-4123-A5DD-BB23652A7EF6}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{93B8893C-F710-4056-8E77-C710CA1B37F2}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{C67D3A30-208B-4825-870E-E9BD5297D78A}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{B14DA04F-8EBE-46B3-82A9-C4ECC1F4F7EB}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{32D9C1AB-9DCB-4ED2-B306-0182EA874586}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{CF8793DD-60FA-4CF1-A85B-4BB7389139C1}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{72778549-AA11-4372-8A10-3C843221CB82}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{73FDA00E-E157-4778-AFFA-65E13731C677}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{0586ECE0-F11C-466A-A064-6C16AD82CDB8}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{623EF7DB-099C-4455-B2AA-F3FE82CCEDF4}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{79D6F49E-89BF-43A3-9390-FE50A06C5854}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{D704DDFF-D280-4188-8972-C721064727B6}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{F74C70DF-E2B1-4F6E-AF38-0B4E605A297A}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{CDFE4A27-6764-49EC-9EC9-EE39EE6731D1}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{B462A5EB-9921-4506-8123-56F4EDF8E337}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{8BCC4300-1A54-4708-84A6-A559B3CB581A}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{AC0BDE6D-91A3-4EC4-8DF5-0FE80214F7A5}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{627D62CE-4672-4A10-AF8B-0A5D5590BADF}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{B6A18C7E-C1EE-4706-93FD-237AE52638F3}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{B8DDFEC5-7852-4A4E-AFBC-B16E22A30541}"/>
+    <hyperlink ref="G25" r:id="rId24" xr:uid="{245F9F81-DE14-4F45-9888-3E1057D992E9}"/>
+    <hyperlink ref="G26" r:id="rId25" xr:uid="{0E6A1966-E6E9-44CC-AE93-B046A42C848A}"/>
+    <hyperlink ref="G27" r:id="rId26" xr:uid="{7443264F-02D7-4B16-9AFF-FD340B0EDD83}"/>
+    <hyperlink ref="G28" r:id="rId27" xr:uid="{2DB1F2A3-BAB3-4112-8DD1-9834466E17FE}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{79DE6C6C-7E46-4CBC-8356-C97F2FDA3B5A}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{C6F73D57-F511-422B-8BC1-ADFBA913F574}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{48C8E87D-2208-4177-A71F-E9C722F7A2B1}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{8FE716B1-244B-49A4-A16D-8C200C66BC44}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{EEFE1418-2175-4BE8-87C6-2E599E4E0511}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{52D2788D-1400-4EAE-AFFF-1508E275F187}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{FC124292-F11C-4EC8-94B2-ED5B5AE44C1F}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{0B39BF22-4E70-4811-A0F1-E81EA53CCF56}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{0AFFFAC2-25A7-485D-8EB0-66ECC76394AF}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{077AC040-DC02-4DDE-A5F9-89CE5CA8C026}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{5CCC29F0-55EC-45C7-955F-6B81D9CC6E2F}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{45ABA3DD-2B75-4B2F-8B8F-29356110694E}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{6FCFEF51-8C54-4B9F-9F6D-D2FC5398A9B2}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{8D0E138E-01CC-46B1-BEAF-3C1652FCC541}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{F518B42F-4935-448A-8626-FE61076761C3}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{E2EDB46F-A152-4338-8E3D-1CB349F3294B}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{81691A83-EBCB-4A70-9ECA-BB8F9E90699F}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{83E38E11-2F12-42E8-A735-AEA3AB6130F5}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{B0C4D218-9B0A-41E2-A0DC-6C119C2CB643}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{30ADC6DF-E630-44D5-A9CC-861266664D8C}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{1F7A15A8-314A-484C-8810-7E60D3A08C9F}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{B377999F-F4C6-4E87-9E43-76A285EF95B9}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{2E3C496E-F960-43A4-8C2F-5EFE200B1855}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{C56FAECB-981A-4AE8-9688-69C7C45970F5}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{A8385E04-048D-413D-9951-CE311077B9CB}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{D677456D-17F9-43D0-BF14-8180DAF66B41}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{27352DB4-CFCD-4D32-905E-152D089806A7}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{4368DC8F-528A-4539-AE45-B7B8755FEDE3}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{36B54448-F8B8-4ECE-B125-738E3B2BDC9C}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{EA32274B-1EAD-4579-ACB3-78BBB56DA777}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{2FBEC6EB-517E-40D2-B6C6-6AA6E5D6EAE3}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{FA24014A-D80B-4B95-8CCF-479C1E553FC3}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{402A26C7-A6C4-4F01-92AA-C1D47063CC35}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{C0152036-1D61-48AB-849A-C3F9258CC575}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{3C16D9C6-0E11-4469-9B1E-98CEE619D7E5}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{4C2E5430-6E58-4387-96CF-BE5FA2A069F8}"/>
+    <hyperlink ref="G65" r:id="rId64" xr:uid="{01B96135-4DE7-47F9-BDD7-B64E392AB1D7}"/>
+    <hyperlink ref="G66" r:id="rId65" xr:uid="{C6163B7A-4F99-4E37-930F-880BA156578F}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{D3DE43D7-8806-4622-8466-8089D6B3A5F4}"/>
+    <hyperlink ref="G68" r:id="rId67" xr:uid="{9E2BF655-0F1E-4067-BEE8-8AC540E3867F}"/>
+    <hyperlink ref="G69" r:id="rId68" xr:uid="{CD706569-7E84-4FB1-9DE1-F2726823B614}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{8DE40ABE-969A-44D8-83D9-8629E793AA48}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{59FCA426-7610-4129-A1B9-2E12BEA34EC9}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{FF2D2263-67E4-4EDB-B408-6E3625D6D810}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{19B48CB0-C3C2-4C30-8B40-F8CF09B8C53F}"/>
+    <hyperlink ref="G74" r:id="rId73" xr:uid="{B3A506EB-8DE1-43E9-B037-E3B81BEEA90E}"/>
+    <hyperlink ref="G75" r:id="rId74" xr:uid="{938A7E55-A0A2-4AC1-9EFC-B32360A48A12}"/>
+    <hyperlink ref="G76" r:id="rId75" xr:uid="{7E76A81A-6C95-4AB1-BF41-B56490CACD09}"/>
+    <hyperlink ref="G77" r:id="rId76" xr:uid="{73AA9401-B8DD-4286-AF24-04DFBBCC2AF2}"/>
+    <hyperlink ref="G78" r:id="rId77" xr:uid="{E27A8009-1112-47FB-9D84-2FB1784AA1F3}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{13294166-CFD2-4EDF-A8B7-CBB8596289DC}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{9D31B625-D93F-460D-82D5-EF8D1C7CA428}"/>
+    <hyperlink ref="G81" r:id="rId80" xr:uid="{047AD418-8158-4538-920D-1C158E1852A5}"/>
+    <hyperlink ref="G82" r:id="rId81" xr:uid="{681CDBEE-B0BB-40B2-AF39-A781D30C36A0}"/>
+    <hyperlink ref="G83" r:id="rId82" xr:uid="{F77152A8-70F7-4F5F-903E-6E736D2C7368}"/>
+    <hyperlink ref="G84" r:id="rId83" xr:uid="{C73861E0-542E-4425-8174-CA266821FD95}"/>
+    <hyperlink ref="G85" r:id="rId84" xr:uid="{F5EEF01A-275E-4780-80D9-5BC75E518D67}"/>
+    <hyperlink ref="G86" r:id="rId85" xr:uid="{10AB6757-B93E-4762-9FB1-92128363DD82}"/>
+    <hyperlink ref="G87" r:id="rId86" xr:uid="{DCBDD541-55FA-489C-80A0-59E50FCF05DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
